--- a/Mifos Automation Excels/Client/3531-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-SP-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3531-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-SP-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="86">
   <si>
     <t>#</t>
   </si>
@@ -76,9 +71,6 @@
     <t>Disbursement</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Original</t>
   </si>
   <si>
@@ -281,13 +273,19 @@
   </si>
   <si>
     <t>$ 10,145.16</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
+  </si>
+  <si>
+    <t>Accrual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +305,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -391,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -441,6 +447,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +510,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,26 +543,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -586,23 +578,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -793,23 +768,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="6">
         <v>42005</v>
@@ -817,7 +792,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="6">
         <v>42005</v>
@@ -825,7 +800,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8">
         <v>10000</v>
@@ -833,15 +808,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="6">
         <v>42005</v>
@@ -849,7 +824,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="10">
         <v>10000</v>
@@ -857,7 +832,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="6">
         <v>42018</v>
@@ -865,23 +840,23 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="6">
         <v>42005</v>
@@ -889,23 +864,23 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="6">
         <v>42005</v>
@@ -913,10 +888,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -941,15 +916,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="16">
         <v>42019</v>
@@ -957,7 +932,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="15">
         <v>4000</v>
@@ -965,7 +940,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="24">
         <v>10145.16</v>
@@ -973,10 +948,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -989,7 +964,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,22 +980,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1110,7 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -1267,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,56 +1263,58 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>146</v>
+        <v>570</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="12">
         <v>42019</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="14">
-        <v>10145.16</v>
-      </c>
-      <c r="F2" s="13">
-        <v>10000</v>
+        <v>85</v>
+      </c>
+      <c r="E2" s="11">
+        <v>145.16</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0</v>
       </c>
       <c r="G2" s="11">
         <v>45.16</v>
@@ -1356,37 +1333,71 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>92</v>
+        <v>569</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="12">
+        <v>42019</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="14">
+        <v>10145.16</v>
+      </c>
+      <c r="F3" s="13">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="11">
+        <v>45.16</v>
+      </c>
+      <c r="H3" s="11">
+        <v>100</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>568</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="12">
         <v>42005</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E4" s="13">
         <v>10000</v>
       </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
         <v>10000</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1409,31 +1420,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1441,25 +1452,25 @@
         <v>13</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="20">
         <v>42005</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="I2" s="19"/>
     </row>
@@ -1468,26 +1479,26 @@
         <v>14</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="20">
         <v>42005</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>65</v>
-      </c>
       <c r="G3" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1518,31 +1529,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1550,26 +1561,26 @@
         <v>288</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="20">
         <v>42019</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>65</v>
-      </c>
       <c r="G2" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1577,26 +1588,26 @@
         <v>289</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="20">
         <v>42019</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>65</v>
-      </c>
       <c r="G3" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1604,26 +1615,26 @@
         <v>290</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="20">
         <v>42019</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1631,25 +1642,25 @@
         <v>291</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="20">
         <v>42019</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>65</v>
-      </c>
       <c r="G5" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I5" s="19"/>
     </row>
@@ -1676,31 +1687,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>61</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1708,25 +1719,25 @@
         <v>172</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="12">
         <v>42036</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="I2" s="11"/>
     </row>
@@ -1735,26 +1746,26 @@
         <v>173</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="12">
         <v>42036</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1762,25 +1773,25 @@
         <v>174</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="12">
         <v>42036</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -1789,26 +1800,26 @@
         <v>175</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="12">
         <v>42036</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1816,25 +1827,25 @@
         <v>280</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="12">
         <v>42036</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="I6" s="11"/>
     </row>
@@ -1843,26 +1854,26 @@
         <v>281</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="12">
         <v>42036</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="G7" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1870,25 +1881,25 @@
         <v>282</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="12">
         <v>42036</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="I8" s="11"/>
     </row>
@@ -1897,26 +1908,26 @@
         <v>283</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="12">
         <v>42036</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1935,25 +1946,25 @@
         <v>176</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="12">
         <v>42064</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I11" s="11"/>
     </row>
@@ -1962,26 +1973,26 @@
         <v>177</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="12">
         <v>42064</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1989,25 +2000,25 @@
         <v>284</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="12">
         <v>42064</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="H13" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I13" s="11"/>
     </row>
@@ -2016,26 +2027,26 @@
         <v>285</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="12">
         <v>42064</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="G14" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2043,25 +2054,25 @@
         <v>178</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="12">
         <v>42095</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I16" s="11"/>
     </row>
@@ -2070,26 +2081,26 @@
         <v>179</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="12">
         <v>42095</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2097,25 +2108,25 @@
         <v>286</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="12">
         <v>42095</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="H18" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18" s="11"/>
     </row>
@@ -2124,26 +2135,26 @@
         <v>287</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="12">
         <v>42095</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="G19" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
